--- a/resource/output - Kopya (2).xlsx
+++ b/resource/output - Kopya (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12840" windowHeight="2610" tabRatio="850" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -1337,6 +1337,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1515,7 +1518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1555,6 +1558,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bağlı Hücre" xfId="1" builtinId="24"/>
@@ -2427,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2512,7 +2516,7 @@
       <c r="D4" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="25" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2722,6 +2726,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6181,8 +6186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
